--- a/cp/Plan_de_test_Mario_Pizza.xlsx
+++ b/cp/Plan_de_test_Mario_Pizza.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sondesmessai/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELLOUZAI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B187EC5C-032E-8B49-8B0A-E01DF47B588B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
+    <sheet name="Connexion" sheetId="1" r:id="rId1"/>
+    <sheet name="Créer un compte" sheetId="2" r:id="rId2"/>
+    <sheet name="Commander" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
   <si>
     <t>Numéro</t>
   </si>
@@ -204,12 +206,137 @@
   </si>
   <si>
     <t>4) Je saisis le mdp « LILY »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RG19 : les pizzas présentées sont issues de la base de données
+</t>
+  </si>
+  <si>
+    <t>RG18 : la liste des pizzas est scrollable</t>
+  </si>
+  <si>
+    <t>RG22 : l’image est issue des données présentes dans la base de données (pizza.image)</t>
+  </si>
+  <si>
+    <t>RG23 : le nom est issu des données présentes dans la base de données (pizza.name)</t>
+  </si>
+  <si>
+    <t>RG24 : la description est issue des données présentes dans la base de données (pizza.description)</t>
+  </si>
+  <si>
+    <t>RG25 : le prix est issu des données présentes dans la base de données (pizza.price)</t>
+  </si>
+  <si>
+    <t>1) Je scroll vers le haut ou vers le bas</t>
+  </si>
+  <si>
+    <t>Je défile la liste des pizzas</t>
+  </si>
+  <si>
+    <t>Le nombre pizza correspond au données de la table</t>
+  </si>
+  <si>
+    <t>Les images correspond au données de la table</t>
+  </si>
+  <si>
+    <t>Le nom correspond au données de la table</t>
+  </si>
+  <si>
+    <t>La description correspond au données de la table</t>
+  </si>
+  <si>
+    <t>Le prix correspond au données de la table</t>
+  </si>
+  <si>
+    <t>RG26 : la quantité est comprise entre 0 et 10</t>
+  </si>
+  <si>
+    <t>RG27 : la quantité peut être directement saisie au clavier</t>
+  </si>
+  <si>
+    <t>RG28 : l’utilisateur peut utiliser les boutons – et + situés de part et d’autre de la quantité pour augmenter de 1 ou diminuer de 1 la quantité dans la limite autorisée</t>
+  </si>
+  <si>
+    <t>1) Je vérifie que les images de pizzas sont affiché et correspond au donnée de base de donnée</t>
+  </si>
+  <si>
+    <t>1) Je vérifie que le nom de pizzas sont affiché et correspond au donnée de base de donnée</t>
+  </si>
+  <si>
+    <t>1) Je vérifie que le description de pizzas sont affiché et correspond au donnée de base de donnée</t>
+  </si>
+  <si>
+    <t>1) Je vérifie que le prix de pizzas sont affiché et correspond au donnée de base de donnée</t>
+  </si>
+  <si>
+    <t>Je suis connecté et l’application affiche la page des commandes</t>
+  </si>
+  <si>
+    <t>Vérifier la page des commandes</t>
+  </si>
+  <si>
+    <t>1) Je clique sur la boutton +</t>
+  </si>
+  <si>
+    <t>1) Je clique sur la boutton -</t>
+  </si>
+  <si>
+    <t>Le quantité baisse de 1</t>
+  </si>
+  <si>
+    <t>Le quantité augmente de 1</t>
+  </si>
+  <si>
+    <t>1) Saisie une quantité 5</t>
+  </si>
+  <si>
+    <t>Vérifier la quantité saisie sur une commandes</t>
+  </si>
+  <si>
+    <t>La quantité est égale a 5</t>
+  </si>
+  <si>
+    <t>La quantité ne dépasse pas 10</t>
+  </si>
+  <si>
+    <t>RG20 : le total de la commande est mis à jour au fur et à mesure de l’ajout de pizza à la commande</t>
+  </si>
+  <si>
+    <t>1) Je vérifie que la liste des pizzas est affiché
+2) Je vérifie le nombre de pizza affiché</t>
+  </si>
+  <si>
+    <t>1) Je saisie une quantié de 11 ou j'augmente la quantité avec le bouton + 11 fois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le total de la commande est mis à jour </t>
+  </si>
+  <si>
+    <t>1) Je Saisie une quantité 5
+2) Je clique sur la boutton ajouter une pizza</t>
+  </si>
+  <si>
+    <t>Vérifier le total de la commande</t>
+  </si>
+  <si>
+    <t>RG29 : la commande précédente est supprimée de la mémoire</t>
+  </si>
+  <si>
+    <t>Vérifier la page succès de commande</t>
+  </si>
+  <si>
+    <t>1) Je Saisie une quantité 5
+2) Je clique sur la boutton ajouter une pizza
+3) Je clique sur valider la commande</t>
+  </si>
+  <si>
+    <t>La page succès de commande est affiché et la commande précédente est supprimer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -304,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -320,15 +447,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -339,6 +457,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,28 +893,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="12" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="46" style="13" customWidth="1"/>
-    <col min="5" max="5" width="39.83203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="78.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="5"/>
-    <col min="10" max="12" width="11.5" style="1"/>
+    <col min="1" max="1" width="8" style="9" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="46" style="10" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="78.28515625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="5"/>
+    <col min="10" max="12" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -793,552 +944,588 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="28" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
         <v>4</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" ht="82" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
         <v>5</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10" t="s">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10" t="s">
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
         <v>6</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10" t="s">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10" t="s">
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10" t="s">
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10" t="s">
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
         <v>7</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10" t="s">
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10" t="s">
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="10" t="s">
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="10" t="s">
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="12">
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
         <v>8</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" ht="62" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
         <v>9</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10" t="s">
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H12:H17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="G12:G17"/>
     <mergeCell ref="H2:H6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
@@ -1351,42 +1538,6 @@
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="G2:G6"/>
-    <mergeCell ref="H12:H17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="G29:G33"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:G36">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
@@ -1397,7 +1548,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="G2:G36" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="G2:G36">
       <formula1>"Succès,Échec"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1409,4 +1560,530 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cp/Plan_de_test_Mario_Pizza.xlsx
+++ b/cp/Plan_de_test_Mario_Pizza.xlsx
@@ -12,10 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Connexion" sheetId="1" r:id="rId1"/>
-    <sheet name="Créer un compte" sheetId="2" r:id="rId2"/>
+    <sheet name="Créer un compte" sheetId="2" r:id="rId1"/>
+    <sheet name="Connexion" sheetId="1" r:id="rId2"/>
     <sheet name="Commander" sheetId="3" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="129">
   <si>
     <t>Numéro</t>
   </si>
@@ -331,6 +330,125 @@
   </si>
   <si>
     <t>La page succès de commande est affiché et la commande précédente est supprimer</t>
+  </si>
+  <si>
+    <t>RG6 : le nom est obligatoire</t>
+  </si>
+  <si>
+    <t>RG7 : le nom doit contenir au minimum 2 lettres</t>
+  </si>
+  <si>
+    <t>RG8 : le prénom est obligatoire</t>
+  </si>
+  <si>
+    <t>RG9 : le prénom doit contenir au minimum 2 lettres</t>
+  </si>
+  <si>
+    <t>RG10 : le mot de passe doit contenir au minimum 6 caractères</t>
+  </si>
+  <si>
+    <t>RG11 : la confirmation doit contenir au minimum 6 caractères</t>
+  </si>
+  <si>
+    <t>RG12 : la confirmation doit avoir la même valeur que le mot de passe</t>
+  </si>
+  <si>
+    <t>RG13 : le téléphone est obligatoire</t>
+  </si>
+  <si>
+    <t>RG14 : l’adresse est obligatoire</t>
+  </si>
+  <si>
+    <t>RG16 : en cas de succès l’utilisateur est redirigé vers la page de succès de création de compte</t>
+  </si>
+  <si>
+    <t>1) Je clique sur la champ nom
+2) Je saisis le « Sondes »</t>
+  </si>
+  <si>
+    <t>1) Je clique sur la champ nom
+2) Je saisis une lettre
+3) Je valide</t>
+  </si>
+  <si>
+    <t>Un message d'erreur est affiché "le nom doit contenir au minimum 2 lettres"</t>
+  </si>
+  <si>
+    <t>1) Je clique sur la champ nom
+2) Je saisis le « Messai »</t>
+  </si>
+  <si>
+    <t>Le champ nom est encadré en rouge
+Un message d'erreur est affiché "le nom est obligatoire"</t>
+  </si>
+  <si>
+    <t>Le champ prenom est encadré en rouge
+Un message d'erreur est affiché "le prenom est obligatoire"</t>
+  </si>
+  <si>
+    <t>Le champ prenom est encadré en rouge
+Un message d'erreur est affiché "le prenom doit contenir au minimum 2 lettres"</t>
+  </si>
+  <si>
+    <t>Le champ  mot de passe est encadré en rouge
+Un message d'erreur est affiché "le mot de passe doit contenir au minimum 6 lettres"</t>
+  </si>
+  <si>
+    <t>Le champ confirmation est encadré en rouge
+Un message d'erreur est affiché "le confirmation doit contenir au minimum 6 lettres"</t>
+  </si>
+  <si>
+    <t>1) Je clique sur la champ confirmation
+2) Je saisis une lettre
+3) Je valide</t>
+  </si>
+  <si>
+    <t>1) Je saisie le mot de passe "1234567"
+2) Je saisie la confirmation "123456"
+3) Je valide</t>
+  </si>
+  <si>
+    <t>Le champ confirmation est encadré en rouge
+Un message d'erreur est affiché "la confirmation doit avoir la même valeur que le mot de passe"</t>
+  </si>
+  <si>
+    <t>Je suis sur la page créer un compte</t>
+  </si>
+  <si>
+    <t>Vérifier les champs</t>
+  </si>
+  <si>
+    <t>1) Je saise tous les champs sauf le téléphone</t>
+  </si>
+  <si>
+    <t>1) Je saise tous les champs sauf l'adresse</t>
+  </si>
+  <si>
+    <t>Le champ téléphone est encadré en rouge
+Un message d'erreur est affiché "le téléphone est obligatoire"</t>
+  </si>
+  <si>
+    <t>Le champ adresse est encadré en rouge
+Un message d'erreur est affiché "l'adresse est obligatoire"</t>
+  </si>
+  <si>
+    <t>1) Je saise tous les champs
+2) Valider le formulaire
+3) Vérfier les données enregister dans la BD</t>
+  </si>
+  <si>
+    <t>L'utilisateur est présent dans la BD avec le role "USER"</t>
+  </si>
+  <si>
+    <t>1) Je saise tous les champs
+2) Valider le formulaire</t>
+  </si>
+  <si>
+    <t>L’utilisateur est redirigé vers la page de succès de création de compte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RG15 : le compte client est créé avec le rôle applicatif « USER »
+</t>
   </si>
 </sst>
 </file>
@@ -431,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -465,6 +583,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -894,10 +1015,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="19" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="19" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1562,186 +2000,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.7109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1759,19 +2052,19 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1779,19 +2072,19 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1799,19 +2092,19 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1819,19 +2112,19 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1839,19 +2132,19 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1859,79 +2152,79 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="14" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="18" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1939,19 +2232,19 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1959,19 +2252,19 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2074,16 +2367,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>